--- a/DesaKel-Kec.xlsx
+++ b/DesaKel-Kec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\kcda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0263B6D-CA98-48F8-92D2-FB1AA2A2F52D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3826EE-A4A2-4228-ABA7-8E85BA61A24F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="203">
   <si>
     <t>Jumlah RW</t>
   </si>
@@ -882,7 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -905,9 +905,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -931,7 +928,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -939,21 +935,42 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -966,27 +983,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,14 +992,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1323,7 +1328,7 @@
   <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,112 +1342,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="34" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>162</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="25" t="s">
         <v>129</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="25" t="s">
         <v>130</v>
       </c>
       <c r="C8" s="4"/>
@@ -1452,13 +1457,13 @@
       <c r="E8" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
         <v>4</v>
@@ -1466,77 +1471,77 @@
       <c r="E9" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="11" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="10" t="s">
         <v>174</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="25" t="s">
         <v>132</v>
       </c>
       <c r="C14" s="4"/>
@@ -1546,13 +1551,13 @@
       <c r="E14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
         <v>106</v>
@@ -1560,27 +1565,27 @@
       <c r="E15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>107</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
         <v>108</v>
@@ -1588,13 +1593,13 @@
       <c r="E17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5" t="s">
         <v>109</v>
@@ -1602,13 +1607,13 @@
       <c r="E18" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5" t="s">
         <v>175</v>
@@ -1616,15 +1621,15 @@
       <c r="E19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="25" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="4"/>
@@ -1634,13 +1639,13 @@
       <c r="E20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
         <v>111</v>
@@ -1648,88 +1653,88 @@
       <c r="E21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>104</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>3000</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <v>1700</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="11" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <v>1300</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>176</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <v>750</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="24" t="s">
         <v>112</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -1738,32 +1743,32 @@
       <c r="E26" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="11" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="24" t="s">
         <v>113</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -1772,32 +1777,32 @@
       <c r="E28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="11" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="24" t="s">
         <v>114</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -1806,32 +1811,32 @@
       <c r="E30" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="11" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="24" t="s">
         <v>115</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -1840,29 +1845,29 @@
       <c r="E32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="11" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="25" t="s">
         <v>140</v>
       </c>
       <c r="C34" s="4"/>
@@ -1872,27 +1877,27 @@
       <c r="E34" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>99</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="4"/>
       <c r="D36" s="6" t="s">
         <v>100</v>
@@ -1900,13 +1905,13 @@
       <c r="E36" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="4"/>
       <c r="D37" s="6" t="s">
         <v>16</v>
@@ -1914,89 +1919,89 @@
       <c r="E37" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="25" t="s">
         <v>159</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="21" t="s">
         <v>141</v>
       </c>
       <c r="C43" s="4"/>
@@ -2006,13 +2011,13 @@
       <c r="E43" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="16">
         <v>2890</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="4"/>
       <c r="D44" s="6" t="s">
         <v>24</v>
@@ -2020,13 +2025,13 @@
       <c r="E44" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="15">
         <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="4"/>
       <c r="D45" s="6" t="s">
         <v>25</v>
@@ -2034,15 +2039,15 @@
       <c r="E45" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="15">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="21" t="s">
         <v>141</v>
       </c>
       <c r="C46" s="4"/>
@@ -2052,13 +2057,13 @@
       <c r="E46" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="4"/>
       <c r="D47" s="6" t="s">
         <v>27</v>
@@ -2066,13 +2071,13 @@
       <c r="E47" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="4"/>
       <c r="D48" s="6" t="s">
         <v>28</v>
@@ -2080,1073 +2085,1010 @@
       <c r="E48" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="25" t="s">
         <v>142</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="25" t="s">
         <v>143</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>116</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>117</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>118</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="15">
         <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="15">
         <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="25" t="s">
         <v>144</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>37</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="15">
         <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="25" t="s">
         <v>145</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F63" s="15">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F65" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="11" t="s">
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="11" t="s">
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="11" t="s">
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="10" t="s">
         <v>47</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="11" t="s">
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="11" t="s">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="11" t="s">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="10" t="s">
         <v>120</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="11" t="s">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="10" t="s">
         <v>121</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="11" t="s">
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="10" t="s">
         <v>122</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F76" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="25" t="s">
         <v>148</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F77" s="15">
         <v>700</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F79" s="15">
         <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C80" s="4"/>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F80" s="15">
         <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F81" s="15">
         <v>712</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="25" t="s">
         <v>150</v>
       </c>
       <c r="C82" s="4"/>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F82" s="15">
         <v>733</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="23"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F83" s="15">
         <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="25" t="s">
         <v>151</v>
       </c>
       <c r="C84" s="4"/>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F84" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-      <c r="B85" s="23"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="4"/>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F85" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="21" t="s">
         <v>152</v>
       </c>
       <c r="C86" s="4"/>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>59</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F86" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
-      <c r="B87" s="32"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="4"/>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F87" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F88" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>152</v>
       </c>
       <c r="C89" s="4"/>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F89" s="16">
+      <c r="F89" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B90" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="10" t="s">
         <v>178</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F90" s="16">
+      <c r="F90" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="11" t="s">
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="10" t="s">
         <v>181</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F91" s="16">
+      <c r="F91" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="11" t="s">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="10" t="s">
         <v>182</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F92" s="16">
+      <c r="F92" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="23"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="26" t="s">
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="10" t="s">
         <v>179</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F93" s="16">
+      <c r="F93" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="11" t="s">
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="10" t="s">
         <v>181</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F94" s="16">
+      <c r="F94" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="11" t="s">
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="10" t="s">
         <v>182</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F95" s="16">
+      <c r="F95" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="26" t="s">
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="10" t="s">
         <v>180</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F96" s="16">
+      <c r="F96" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="11" t="s">
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="10" t="s">
         <v>181</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F97" s="16">
+      <c r="F97" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="11" t="s">
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="10" t="s">
         <v>182</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F98" s="16">
+      <c r="F98" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="11" t="s">
         <v>154</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="10" t="s">
         <v>183</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F99" s="16">
+      <c r="F99" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="21" t="s">
         <v>155</v>
       </c>
       <c r="C100" s="4"/>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="10" t="s">
         <v>184</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F100" s="16" t="s">
+      <c r="F100" s="15" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="32"/>
-      <c r="B101" s="32"/>
+      <c r="A101" s="22"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="4"/>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="10" t="s">
         <v>185</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F101" s="16" t="s">
+      <c r="F101" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="32"/>
-      <c r="B102" s="32"/>
+      <c r="A102" s="22"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="4"/>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="10" t="s">
         <v>186</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F102" s="16" t="s">
+      <c r="F102" s="15" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="32"/>
-      <c r="B103" s="32"/>
+      <c r="A103" s="22"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="4"/>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="10" t="s">
         <v>187</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F103" s="16" t="s">
+      <c r="F103" s="15" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="33"/>
-      <c r="B104" s="33"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="4"/>
-      <c r="D104" s="11" t="s">
+      <c r="D104" s="10" t="s">
         <v>188</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F104" s="16" t="s">
+      <c r="F104" s="15" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="23" t="s">
+      <c r="A105" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="25" t="s">
         <v>156</v>
       </c>
       <c r="C105" s="4"/>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F105" s="16">
+      <c r="F105" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
-      <c r="B106" s="23"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="4"/>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="10" t="s">
         <v>67</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F106" s="16">
+      <c r="F106" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="23"/>
-      <c r="B107" s="23"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="4"/>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F107" s="16">
+      <c r="F107" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="23"/>
-      <c r="B108" s="23"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="4"/>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F108" s="16">
+      <c r="F108" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B109" s="31" t="s">
+      <c r="B109" s="21" t="s">
         <v>161</v>
       </c>
       <c r="C109" s="4"/>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F109" s="16">
+      <c r="F109" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
-      <c r="B110" s="32"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="4"/>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F110" s="16">
+      <c r="F110" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="32"/>
-      <c r="B111" s="32"/>
+      <c r="A111" s="22"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="4"/>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F111" s="16">
+      <c r="F111" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="33"/>
-      <c r="B112" s="33"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="4"/>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F112" s="16">
+      <c r="F112" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C113" s="4"/>
-      <c r="D113" s="11" t="s">
+      <c r="D113" s="10" t="s">
         <v>195</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F113" s="15" t="s">
+      <c r="F113" s="14" t="s">
         <v>196</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="A90:A98"/>
-    <mergeCell ref="B90:B98"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="A14:A19"/>
@@ -3163,6 +3105,69 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="A90:A98"/>
+    <mergeCell ref="B90:B98"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="C93:C95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3171,122 +3176,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18A420F-3D8B-43FD-A0C2-AEACC7FD2028}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="13">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="12">
         <v>2020</v>
       </c>
-      <c r="F4" s="13">
+      <c r="E4" s="12">
         <v>2019</v>
       </c>
-      <c r="G4" s="13">
+      <c r="F4" s="12">
         <v>2018</v>
       </c>
-      <c r="H4" s="13">
+      <c r="G4" s="12">
         <v>2017</v>
       </c>
-      <c r="I4" s="13">
+      <c r="H4" s="12">
         <v>2016</v>
       </c>
-      <c r="J4" s="13">
+      <c r="I4" s="12">
         <v>2015</v>
       </c>
-      <c r="K4" s="13">
+      <c r="J4" s="12">
         <v>2014</v>
       </c>
-      <c r="L4" s="13">
+      <c r="K4" s="12">
         <v>2013</v>
       </c>
-      <c r="M4" s="40"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="L4" s="38"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="20" t="s">
         <v>164</v>
       </c>
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="E5" s="7" t="s">
         <v>103</v>
       </c>
@@ -3308,20 +3308,19 @@
       <c r="K5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" s="8">
+      <c r="L5" s="39">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="11" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="20" t="s">
         <v>165</v>
       </c>
+      <c r="D6" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="E6" s="7" t="s">
         <v>103</v>
       </c>
@@ -3343,20 +3342,19 @@
       <c r="K6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M6" s="8">
+      <c r="L6" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="11" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="20" t="s">
         <v>166</v>
       </c>
+      <c r="D7" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="E7" s="7" t="s">
         <v>103</v>
       </c>
@@ -3378,139 +3376,128 @@
       <c r="K7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M7" s="8">
+      <c r="L7" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="8" t="s">
+      <c r="D8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="8">
+      <c r="D9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="39">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="18" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="8">
+      <c r="D10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="18" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="8">
+      <c r="D11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="39">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="18" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="8">
+      <c r="D12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="39">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C8:C12"/>
+  <mergeCells count="10">
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DesaKel-Kec.xlsx
+++ b/DesaKel-Kec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\kcda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\kcda-blanko-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3826EE-A4A2-4228-ABA7-8E85BA61A24F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331FB68F-9BBB-4042-AA47-D4C6F01CBD15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="202">
   <si>
     <t>Jumlah RW</t>
   </si>
@@ -547,9 +547,6 @@
   </si>
   <si>
     <t>Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa di Kecamatan. 2020</t>
-  </si>
-  <si>
-    <t>Tabel 4.3.2</t>
   </si>
   <si>
     <t>Jumlah Moda Transportasi Laut Menurut Jenis dan  Desa/Kelurahan di Kecamatan, 2020</t>
@@ -704,8 +701,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -880,7 +877,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -938,6 +935,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -947,12 +980,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -962,27 +989,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,12 +998,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1005,9 +1005,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1327,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,56 +1339,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="31" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="35"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -1402,13 +1399,13 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1444,7 +1441,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -1462,7 +1459,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="25"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
@@ -1476,13 +1473,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="26" t="s">
         <v>158</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="28" t="s">
         <v>102</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1496,11 +1493,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="24"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>103</v>
@@ -1510,7 +1507,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="25"/>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
@@ -1524,7 +1521,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="25"/>
       <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
@@ -1538,7 +1535,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="26" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -1556,7 +1553,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="25"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
@@ -1570,7 +1567,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="25"/>
       <c r="C16" s="4"/>
       <c r="D16" s="10" t="s">
@@ -1584,7 +1581,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="25"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
@@ -1598,7 +1595,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="25"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5" t="s">
@@ -1612,11 +1609,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="25"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>103</v>
@@ -1626,7 +1623,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="26" t="s">
         <v>73</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -1644,7 +1641,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="25"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
@@ -1682,7 +1679,7 @@
       <c r="B23" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="28" t="s">
         <v>104</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -1698,7 +1695,7 @@
     <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
-      <c r="C24" s="24"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="10" t="s">
         <v>12</v>
       </c>
@@ -1718,7 +1715,7 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>103</v>
@@ -1734,7 +1731,7 @@
       <c r="B26" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="28" t="s">
         <v>112</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -1750,7 +1747,7 @@
     <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
-      <c r="C27" s="24"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="10" t="s">
         <v>15</v>
       </c>
@@ -1768,7 +1765,7 @@
       <c r="B28" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="28" t="s">
         <v>113</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -1784,7 +1781,7 @@
     <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
-      <c r="C29" s="24"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="10" t="s">
         <v>15</v>
       </c>
@@ -1802,7 +1799,7 @@
       <c r="B30" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="28" t="s">
         <v>114</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -1818,7 +1815,7 @@
     <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
-      <c r="C31" s="24"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="10" t="s">
         <v>15</v>
       </c>
@@ -1836,7 +1833,7 @@
       <c r="B32" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="28" t="s">
         <v>115</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -1852,7 +1849,7 @@
     <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
-      <c r="C33" s="24"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="10" t="s">
         <v>15</v>
       </c>
@@ -1998,10 +1995,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="33" t="s">
         <v>141</v>
       </c>
       <c r="C43" s="4"/>
@@ -2016,8 +2013,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="4"/>
       <c r="D44" s="6" t="s">
         <v>24</v>
@@ -2030,8 +2027,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="4"/>
       <c r="D45" s="6" t="s">
         <v>25</v>
@@ -2044,10 +2041,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B46" s="21" t="s">
+      <c r="A46" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="33" t="s">
         <v>141</v>
       </c>
       <c r="C46" s="4"/>
@@ -2062,8 +2059,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="4"/>
       <c r="D47" s="6" t="s">
         <v>27</v>
@@ -2076,8 +2073,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="4"/>
       <c r="D48" s="6" t="s">
         <v>28</v>
@@ -2344,13 +2341,13 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D66" s="10" t="s">
@@ -2364,9 +2361,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="27"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="10" t="s">
         <v>43</v>
       </c>
@@ -2378,13 +2375,13 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="10" t="s">
@@ -2398,9 +2395,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="27"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="37"/>
       <c r="D69" s="10" t="s">
         <v>45</v>
       </c>
@@ -2412,9 +2409,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="27"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="37"/>
       <c r="D70" s="10" t="s">
         <v>47</v>
       </c>
@@ -2426,9 +2423,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="27"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="10" t="s">
         <v>48</v>
       </c>
@@ -2440,9 +2437,9 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="27"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="37"/>
       <c r="D72" s="10" t="s">
         <v>49</v>
       </c>
@@ -2454,9 +2451,9 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="28"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="38"/>
       <c r="D73" s="10" t="s">
         <v>28</v>
       </c>
@@ -2474,8 +2471,8 @@
       <c r="B74" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="24" t="s">
-        <v>177</v>
+      <c r="C74" s="28" t="s">
+        <v>176</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>120</v>
@@ -2490,7 +2487,7 @@
     <row r="75" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
-      <c r="C75" s="24"/>
+      <c r="C75" s="28"/>
       <c r="D75" s="10" t="s">
         <v>121</v>
       </c>
@@ -2504,7 +2501,7 @@
     <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
-      <c r="C76" s="24"/>
+      <c r="C76" s="28"/>
       <c r="D76" s="10" t="s">
         <v>122</v>
       </c>
@@ -2658,10 +2655,10 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="33" t="s">
         <v>152</v>
       </c>
       <c r="C86" s="4"/>
@@ -2676,8 +2673,8 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
       <c r="C87" s="4"/>
       <c r="D87" s="10" t="s">
         <v>60</v>
@@ -2690,8 +2687,8 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
-      <c r="B88" s="23"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="35"/>
       <c r="C88" s="4"/>
       <c r="D88" s="10" t="s">
         <v>61</v>
@@ -2728,11 +2725,11 @@
       <c r="B90" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="C90" s="28" t="s">
         <v>63</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>103</v>
@@ -2744,9 +2741,9 @@
     <row r="91" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
-      <c r="C91" s="24"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>103</v>
@@ -2758,9 +2755,9 @@
     <row r="92" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
-      <c r="C92" s="24"/>
+      <c r="C92" s="28"/>
       <c r="D92" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>103</v>
@@ -2772,11 +2769,11 @@
     <row r="93" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="28" t="s">
         <v>64</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>103</v>
@@ -2788,9 +2785,9 @@
     <row r="94" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
-      <c r="C94" s="24"/>
+      <c r="C94" s="28"/>
       <c r="D94" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>103</v>
@@ -2802,9 +2799,9 @@
     <row r="95" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
-      <c r="C95" s="24"/>
+      <c r="C95" s="28"/>
       <c r="D95" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>103</v>
@@ -2816,11 +2813,11 @@
     <row r="96" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="28" t="s">
         <v>65</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>103</v>
@@ -2832,9 +2829,9 @@
     <row r="97" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
-      <c r="C97" s="24"/>
+      <c r="C97" s="28"/>
       <c r="D97" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>103</v>
@@ -2846,9 +2843,9 @@
     <row r="98" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
-      <c r="C98" s="24"/>
+      <c r="C98" s="28"/>
       <c r="D98" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>103</v>
@@ -2866,7 +2863,7 @@
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>103</v>
@@ -2876,77 +2873,77 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="33" t="s">
         <v>155</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="34"/>
       <c r="C101" s="4"/>
       <c r="D101" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="22"/>
-      <c r="B102" s="22"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
       <c r="C102" s="4"/>
       <c r="D102" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
-      <c r="B103" s="22"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
       <c r="C103" s="4"/>
       <c r="D103" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="23"/>
-      <c r="B104" s="23"/>
+      <c r="A104" s="35"/>
+      <c r="B104" s="35"/>
       <c r="C104" s="4"/>
       <c r="D104" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -3010,11 +3007,11 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="21" t="s">
+      <c r="A109" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B109" s="21" t="s">
-        <v>161</v>
+      <c r="B109" s="33" t="s">
+        <v>160</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="10" t="s">
@@ -3028,8 +3025,8 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
-      <c r="B110" s="22"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="34"/>
       <c r="C110" s="4"/>
       <c r="D110" s="10" t="s">
         <v>70</v>
@@ -3042,8 +3039,8 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="22"/>
-      <c r="B111" s="22"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="34"/>
       <c r="C111" s="4"/>
       <c r="D111" s="10" t="s">
         <v>71</v>
@@ -3056,8 +3053,8 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23"/>
+      <c r="A112" s="35"/>
+      <c r="B112" s="35"/>
       <c r="C112" s="4"/>
       <c r="D112" s="10" t="s">
         <v>41</v>
@@ -3078,17 +3075,80 @@
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F113" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F113" s="14" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="A90:A98"/>
+    <mergeCell ref="B90:B98"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="A14:A19"/>
@@ -3105,69 +3165,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="A90:A98"/>
-    <mergeCell ref="B90:B98"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="C93:C95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3193,61 +3190,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="12">
         <v>2020</v>
       </c>
@@ -3272,18 +3269,18 @@
       <c r="K4" s="12">
         <v>2013</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>164</v>
-      </c>
       <c r="D5" s="7" t="s">
         <v>103</v>
       </c>
@@ -3308,7 +3305,7 @@
       <c r="K5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="21">
         <v>3</v>
       </c>
     </row>
@@ -3316,7 +3313,7 @@
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>103</v>
@@ -3342,7 +3339,7 @@
       <c r="K6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="21">
         <v>1</v>
       </c>
     </row>
@@ -3350,7 +3347,7 @@
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>103</v>
@@ -3376,19 +3373,19 @@
       <c r="K7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>168</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>169</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>103</v>
@@ -3400,15 +3397,15 @@
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="40" t="s">
-        <v>172</v>
+      <c r="L8" s="22" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="44" t="s">
-        <v>170</v>
+      <c r="A9" s="43"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>103</v>
@@ -3420,15 +3417,15 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
-      <c r="L9" s="39">
+      <c r="L9" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="44" t="s">
-        <v>171</v>
+      <c r="A10" s="43"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="23" t="s">
+        <v>170</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>103</v>
@@ -3440,14 +3437,14 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="39">
+      <c r="L10" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="44" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -3460,14 +3457,14 @@
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
-      <c r="L11" s="39">
+      <c r="L11" s="21">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="44" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -3480,12 +3477,14 @@
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
-      <c r="L12" s="39">
+      <c r="L12" s="21">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A1:L1"/>
@@ -3494,8 +3493,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
